--- a/data/biweekly/ccbor-biweekly-stolz.xlsx
+++ b/data/biweekly/ccbor-biweekly-stolz.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ccbor-biweekly-stolz" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Conductivity means and stds" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Stolz only" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="289">
   <si>
     <t xml:space="preserve">site</t>
   </si>
@@ -798,6 +799,96 @@
   </si>
   <si>
     <t xml:space="preserve">Site 9: Downstream Little Walnut Ck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site #</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date sampled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longitude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rainfall in past 48 hrs (in)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature (degrees C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dissolved oxygen partial pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dissolved oxygen (ppm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specific conductivity (uS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conductivity (uS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total dissolved solids (ppm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluoride (mg/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chloride (mg/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrite (mg/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bromide (mg/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrate (mg/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phosphate (mg/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulfate (mg/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bicarbonate (mg/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbonate (mg/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Li (mg/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B (mg/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na (mg/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mg (mg/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al (mg/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si (mg/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P (mg/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K (mg/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ca (mg/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ti (mg/L)</t>
   </si>
 </sst>
 </file>
@@ -815,6 +906,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -895,7 +987,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -928,6 +1020,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,11 +1047,11 @@
   </sheetPr>
   <dimension ref="A1:BW221"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F205" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q198" activeCellId="0" sqref="Q198"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.52"/>
@@ -974,17 +1074,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="6.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="8.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="8.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="10.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="7.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="36" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="42" style="0" width="6.01"/>
@@ -1008,7 +1108,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="70" style="0" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="8.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="0" width="9.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="0" width="7.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="0" width="12.41"/>
@@ -17353,14 +17453,14 @@
   </sheetPr>
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="37.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18355,6 +18455,5924 @@
       </c>
       <c r="F26" s="0" t="n">
         <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:BM37"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="6.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="7.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="26" style="0" width="6.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="32" style="0" width="6.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="6.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="7.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="44" style="0" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="49" style="0" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="60" style="0" width="7.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="9.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="7.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="12.41"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="9" customFormat="true" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="BA1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="BB1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="BE1" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="BI1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BK1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BL1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM1" s="8"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>40.464786</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-82.854767</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>734.3</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>777</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>780</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>505.05</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>44.3</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>348.9</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <v>24.14</v>
+      </c>
+      <c r="AD2" s="0" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="AE2" s="0" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="AF2" s="0" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="AG2" s="0" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AH2" s="0" t="n">
+        <v>96.31</v>
+      </c>
+      <c r="AI2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ2" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AK2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL2" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AM2" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AN2" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AO2" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AP2" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AQ2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR2" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AS2" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AT2" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU2" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AV2" s="0" t="n">
+        <v>0.0047</v>
+      </c>
+      <c r="AW2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX2" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="AY2" s="0" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="AZ2" s="0" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="BA2" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="BB2" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BC2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD2" s="0" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="BE2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF2" s="0" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="BG2" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="BH2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL2" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>40.464786</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>-82.854767</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>748.1</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>482</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>340.8</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>313.8</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>47.04</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>46.67</v>
+      </c>
+      <c r="X3" s="0" t="n">
+        <v>278.2</v>
+      </c>
+      <c r="Y3" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>30.76</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>24.56</v>
+      </c>
+      <c r="AD3" s="0" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="AE3" s="0" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="AF3" s="0" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="AG3" s="0" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH3" s="0" t="n">
+        <v>79.56</v>
+      </c>
+      <c r="AI3" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AJ3" s="0" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="AK3" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AL3" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AM3" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AN3" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AO3" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AP3" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AQ3" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="AR3" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AS3" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AT3" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU3" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AV3" s="0" t="n">
+        <v>0.0032</v>
+      </c>
+      <c r="AW3" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX3" s="0" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="AY3" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ3" s="0" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="BA3" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB3" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BC3" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD3" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BE3" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF3" s="0" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="BG3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH3" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI3" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ3" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK3" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL3" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>40.464786</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>-82.854767</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>115.5</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>8.77</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>729.5</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>329.9</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>222.4</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>214.1</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>11.52</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="X4" s="0" t="n">
+        <v>146.4</v>
+      </c>
+      <c r="Y4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AA4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>8.45</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="AD4" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AE4" s="0" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AF4" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AG4" s="0" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AH4" s="0" t="n">
+        <v>42.66</v>
+      </c>
+      <c r="AI4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ4" s="0" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="AK4" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL4" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM4" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AN4" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR4" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AS4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT4" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU4" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AV4" s="0" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="AW4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY4" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="AZ4" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BA4" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="BB4" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BC4" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="BD4" s="0" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="BE4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF4" s="0" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="BG4" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="BH4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL4" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>40.464786</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>-82.854767</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T5" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>66.4</v>
+      </c>
+      <c r="X5" s="0" t="n">
+        <v>202.5</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>40.45042</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>-82.87316</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>734.7</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>817</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>751</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>531.05</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>64.1</v>
+      </c>
+      <c r="X6" s="0" t="n">
+        <v>378.2</v>
+      </c>
+      <c r="Y6" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <v>38.89</v>
+      </c>
+      <c r="AD6" s="0" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="AE6" s="0" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="AF6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG6" s="0" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AH6" s="0" t="n">
+        <v>85.74</v>
+      </c>
+      <c r="AI6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ6" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL6" s="0" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AM6" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AN6" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO6" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AP6" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AQ6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR6" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AS6" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AT6" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU6" s="0" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AV6" s="0" t="n">
+        <v>0.0117</v>
+      </c>
+      <c r="AW6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX6" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY6" s="0" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="AZ6" s="0" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="BA6" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="BB6" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BC6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD6" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BE6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF6" s="0" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="BG6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="BH6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL6" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>40.45042</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>-82.87316</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>749.2</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>485</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>306.5</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>314.7</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="V7" s="0" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="W7" s="0" t="n">
+        <v>36.05</v>
+      </c>
+      <c r="X7" s="0" t="n">
+        <v>207.4</v>
+      </c>
+      <c r="Y7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z7" s="0" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="AB7" s="0" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="AC7" s="0" t="n">
+        <v>19.83</v>
+      </c>
+      <c r="AD7" s="0" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="AE7" s="0" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="AF7" s="0" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="AG7" s="0" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="AH7" s="0" t="n">
+        <v>60.22</v>
+      </c>
+      <c r="AI7" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="AJ7" s="0" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="AK7" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AL7" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM7" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AN7" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AO7" s="0" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AP7" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AQ7" s="0" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="AR7" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AS7" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AT7" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU7" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AV7" s="0" t="n">
+        <v>0.0047</v>
+      </c>
+      <c r="AW7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX7" s="0" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="AY7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ7" s="0" t="n">
+        <v>0.0042</v>
+      </c>
+      <c r="BA7" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB7" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BC7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD7" s="0" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="BE7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF7" s="0" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="BG7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="BH7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL7" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>40.45042</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>-82.87316</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>730.7</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>414.4</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>279.4</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>15.46</v>
+      </c>
+      <c r="V8" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="W8" s="0" t="n">
+        <v>24.34</v>
+      </c>
+      <c r="X8" s="0" t="n">
+        <v>183</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z8" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AA8" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AB8" s="0" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="AC8" s="0" t="n">
+        <v>17.09</v>
+      </c>
+      <c r="AD8" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AE8" s="0" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF8" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AG8" s="0" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AH8" s="0" t="n">
+        <v>52.88</v>
+      </c>
+      <c r="AI8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ8" s="0" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="AK8" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AL8" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AM8" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AN8" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR8" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AS8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT8" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU8" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AV8" s="0" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="AW8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ8" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="BA8" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="BB8" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BC8" s="0" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="BD8" s="0" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="BE8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF8" s="0" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="BG8" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="BH8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK8" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL8" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>40.45042</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>-82.87316</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="V9" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="W9" s="0" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="X9" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="Y9" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>40.43778</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>-82.88076</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>144.3</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>11.89</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>734.9</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>854</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>855</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>555.1</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T10" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>102.1</v>
+      </c>
+      <c r="X10" s="0" t="n">
+        <v>351.4</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <v>24.32</v>
+      </c>
+      <c r="AC10" s="0" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="AD10" s="0" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="AE10" s="0" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="AF10" s="0" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="AG10" s="0" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AH10" s="0" t="n">
+        <v>137.2</v>
+      </c>
+      <c r="AI10" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AJ10" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AK10" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL10" s="0" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="AM10" s="0" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN10" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AO10" s="0" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="AP10" s="0" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="AQ10" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR10" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AS10" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AT10" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU10" s="0" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AV10" s="0" t="n">
+        <v>0.0041</v>
+      </c>
+      <c r="AW10" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX10" s="0" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="AY10" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AZ10" s="0" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="BA10" s="0" t="n">
+        <v>2E-005</v>
+      </c>
+      <c r="BB10" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="BC10" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD10" s="0" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="BE10" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF10" s="0" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="BG10" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="BH10" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI10" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ10" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK10" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL10" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>40.43778</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>-82.88076</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>85.1</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>749.8</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>322</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>324.3</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>20.16</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T11" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>16.78</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>56.14</v>
+      </c>
+      <c r="X11" s="0" t="n">
+        <v>231.8</v>
+      </c>
+      <c r="Y11" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="AD11" s="0" t="n">
+        <v>0.117</v>
+      </c>
+      <c r="AE11" s="0" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="AF11" s="0" t="n">
+        <v>0.436</v>
+      </c>
+      <c r="AG11" s="0" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="AH11" s="0" t="n">
+        <v>74.86</v>
+      </c>
+      <c r="AI11" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AJ11" s="0" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="AK11" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AL11" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AM11" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AN11" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AO11" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="AP11" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AQ11" s="0" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="AR11" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AS11" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AT11" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU11" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AV11" s="0" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="AW11" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX11" s="0" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="AY11" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ11" s="0" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="BA11" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="BB11" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BC11" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD11" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BE11" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF11" s="0" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="BH11" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI11" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ11" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK11" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL11" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>40.43778</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>-82.88076</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>79.5</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>731.5</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>432.3</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>294.4</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>281.4</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="S12" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T12" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>31.23</v>
+      </c>
+      <c r="X12" s="0" t="n">
+        <v>185.4</v>
+      </c>
+      <c r="Y12" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <v>10.05</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="AD12" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AE12" s="0" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF12" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AG12" s="0" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AH12" s="0" t="n">
+        <v>58.42</v>
+      </c>
+      <c r="AI12" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ12" s="0" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="AK12" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AL12" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AM12" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AN12" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO12" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP12" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ12" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR12" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AS12" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT12" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU12" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AV12" s="0" t="n">
+        <v>0.0031</v>
+      </c>
+      <c r="AW12" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX12" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY12" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="AZ12" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="BA12" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="BB12" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BC12" s="0" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="BD12" s="0" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="BE12" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF12" s="0" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="BG12" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="BH12" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI12" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ12" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK12" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL12" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>40.43778</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>-82.88076</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="S13" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T13" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U13" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V13" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="W13" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="X13" s="0" t="n">
+        <v>119.6</v>
+      </c>
+      <c r="Y13" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>40.418595</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>-82.852719</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>735</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>728</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>473.2</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U14" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="V14" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="W14" s="0" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="X14" s="0" t="n">
+        <v>287.9</v>
+      </c>
+      <c r="Y14" s="0" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="Z14" s="0" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AA14" s="0" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="AB14" s="0" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="AC14" s="0" t="n">
+        <v>29.66</v>
+      </c>
+      <c r="AD14" s="0" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="AE14" s="0" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AF14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG14" s="0" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AH14" s="0" t="n">
+        <v>91.43</v>
+      </c>
+      <c r="AI14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ14" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AK14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL14" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AM14" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AN14" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO14" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AP14" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AQ14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR14" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AS14" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AT14" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU14" s="0" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AV14" s="0" t="n">
+        <v>0.0132</v>
+      </c>
+      <c r="AW14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX14" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="AY14" s="0" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="AZ14" s="0" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="BA14" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="BB14" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BC14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD14" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="BE14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF14" s="0" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="BG14" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL14" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>40.418595</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>-82.852719</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>750.2</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>465.6</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>297.2</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <v>302.6</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>30.42</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T15" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U15" s="0" t="n">
+        <v>9.96</v>
+      </c>
+      <c r="V15" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="W15" s="0" t="n">
+        <v>38.79</v>
+      </c>
+      <c r="X15" s="0" t="n">
+        <v>173.2</v>
+      </c>
+      <c r="Y15" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z15" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AA15" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AB15" s="0" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="AC15" s="0" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="AD15" s="0" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="AE15" s="0" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="AF15" s="0" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="AG15" s="0" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="AH15" s="0" t="n">
+        <v>55.65</v>
+      </c>
+      <c r="AI15" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="AJ15" s="0" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="AK15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM15" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AN15" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO15" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="AP15" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AQ15" s="0" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="AR15" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AS15" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT15" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU15" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AV15" s="0" t="n">
+        <v>0.0041</v>
+      </c>
+      <c r="AW15" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX15" s="0" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="AY15" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ15" s="0" t="n">
+        <v>0.0041</v>
+      </c>
+      <c r="BA15" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="BB15" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BC15" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD15" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="BE15" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF15" s="0" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="BH15" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI15" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ15" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK15" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL15" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>40.418595</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>-82.852719</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>85.1</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>731.8</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>491.5</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>345.1</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <v>319.7</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U16" s="0" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="V16" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="W16" s="0" t="n">
+        <v>40.42</v>
+      </c>
+      <c r="X16" s="0" t="n">
+        <v>146.4</v>
+      </c>
+      <c r="Y16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z16" s="0" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AA16" s="0" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AB16" s="0" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="AC16" s="0" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="AD16" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AE16" s="0" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AF16" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AG16" s="0" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="AH16" s="0" t="n">
+        <v>57.66</v>
+      </c>
+      <c r="AI16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ16" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="AK16" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AL16" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM16" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AN16" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR16" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AS16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT16" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU16" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AV16" s="0" t="n">
+        <v>0.0043</v>
+      </c>
+      <c r="AW16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY16" s="0" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="AZ16" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="BA16" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="BB16" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BC16" s="0" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="BD16" s="0" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="BE16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF16" s="0" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="BH16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK16" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL16" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>40.418595</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>-82.852719</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Q17" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="R17" s="0" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U17" s="0" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="V17" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="W17" s="0" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="X17" s="0" t="n">
+        <v>246.4</v>
+      </c>
+      <c r="Y17" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>40.374121</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>-82.887075</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>117.7</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>8.38</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>736.4</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>827</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>207</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>537.55</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="R18" s="0" t="n">
+        <v>53.8</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T18" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="X18" s="0" t="n">
+        <v>219.6</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="AB18" s="0" t="n">
+        <v>30.53</v>
+      </c>
+      <c r="AC18" s="0" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="AD18" s="0" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="AE18" s="0" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AF18" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG18" s="0" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AH18" s="0" t="n">
+        <v>78.52</v>
+      </c>
+      <c r="AI18" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ18" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AK18" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL18" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM18" s="0" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AN18" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO18" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AP18" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AQ18" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR18" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AS18" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AT18" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU18" s="0" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV18" s="0" t="n">
+        <v>0.0151</v>
+      </c>
+      <c r="AW18" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX18" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="AY18" s="0" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="AZ18" s="0" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="BA18" s="0" t="n">
+        <v>2E-005</v>
+      </c>
+      <c r="BB18" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BC18" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD18" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BE18" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF18" s="0" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="BG18" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH18" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI18" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ18" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK18" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL18" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>40.374121</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>-82.887075</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>751.9</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>459.5</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>284.4</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>298.7</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R19" s="0" t="n">
+        <v>35.22</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <v>58.01</v>
+      </c>
+      <c r="X19" s="0" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="Y19" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z19" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AA19" s="0" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="AB19" s="0" t="n">
+        <v>16.98</v>
+      </c>
+      <c r="AC19" s="0" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="AD19" s="0" t="n">
+        <v>0.091</v>
+      </c>
+      <c r="AE19" s="0" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="AF19" s="0" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="AG19" s="0" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="AH19" s="0" t="n">
+        <v>56.97</v>
+      </c>
+      <c r="AI19" s="0" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="AJ19" s="0" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="AK19" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AL19" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM19" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AN19" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO19" s="0" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AP19" s="0" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AQ19" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AR19" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AS19" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AT19" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU19" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AV19" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AW19" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX19" s="0" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="AY19" s="0" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="AZ19" s="0" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="BA19" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB19" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BC19" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD19" s="0" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="BE19" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF19" s="0" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="BH19" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI19" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ19" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK19" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL19" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>40.374121</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>-82.887075</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>8.28</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>733.1</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>564</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>397</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>366.4</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>37.33</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T20" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V20" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <v>54.41</v>
+      </c>
+      <c r="X20" s="0" t="n">
+        <v>197.6</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="AB20" s="0" t="n">
+        <v>25.52</v>
+      </c>
+      <c r="AC20" s="0" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="AD20" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AE20" s="0" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AF20" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AG20" s="0" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AH20" s="0" t="n">
+        <v>62.76</v>
+      </c>
+      <c r="AI20" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ20" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK20" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL20" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM20" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AN20" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO20" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP20" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ20" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR20" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AS20" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT20" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU20" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AV20" s="0" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AW20" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX20" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY20" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="AZ20" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="BA20" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="BB20" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BC20" s="0" t="n">
+        <v>0.0022</v>
+      </c>
+      <c r="BD20" s="0" t="n">
+        <v>0.0006</v>
+      </c>
+      <c r="BE20" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF20" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="BH20" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI20" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ20" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK20" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL20" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>40.374121</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>-82.887075</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T21" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="X21" s="0" t="n">
+        <v>209.8</v>
+      </c>
+      <c r="Y21" s="0" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>40.3952</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>-82.87199</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>121.6</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>9.95</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>8.34</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>728.4</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>716</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>716</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>465.4</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W22" s="0" t="n">
+        <v>88.9</v>
+      </c>
+      <c r="X22" s="0" t="n">
+        <v>273.3</v>
+      </c>
+      <c r="Y22" s="0" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="Z22" s="0" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="AA22" s="0" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="AB22" s="0" t="n">
+        <v>25.12</v>
+      </c>
+      <c r="AC22" s="0" t="n">
+        <v>27.81</v>
+      </c>
+      <c r="AD22" s="0" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="AE22" s="0" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="AF22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG22" s="0" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="AH22" s="0" t="n">
+        <v>83.17</v>
+      </c>
+      <c r="AI22" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ22" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AK22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL22" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AM22" s="0" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AN22" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO22" s="0" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AP22" s="0" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AQ22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR22" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AS22" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AT22" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU22" s="0" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AV22" s="0" t="n">
+        <v>0.0139</v>
+      </c>
+      <c r="AW22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX22" s="0" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="AY22" s="0" t="n">
+        <v>0.0033</v>
+      </c>
+      <c r="AZ22" s="0" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="BA22" s="0" t="n">
+        <v>4E-005</v>
+      </c>
+      <c r="BB22" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BC22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD22" s="0" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="BE22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF22" s="0" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="BH22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL22" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>40.3952</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>-82.87199</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>750.6</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>466.9</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>293.2</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>300.5</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>33.96</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T23" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="V23" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="W23" s="0" t="n">
+        <v>37.27</v>
+      </c>
+      <c r="X23" s="0" t="n">
+        <v>175.7</v>
+      </c>
+      <c r="Y23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z23" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AA23" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AB23" s="0" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="AC23" s="0" t="n">
+        <v>16.22</v>
+      </c>
+      <c r="AD23" s="0" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="AE23" s="0" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="AF23" s="0" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="AG23" s="0" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="AH23" s="0" t="n">
+        <v>54.56</v>
+      </c>
+      <c r="AI23" s="0" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="AJ23" s="0" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="AK23" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AL23" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM23" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AN23" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO23" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AP23" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AQ23" s="0" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="AR23" s="0" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="AS23" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AT23" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU23" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AV23" s="0" t="n">
+        <v>0.0039</v>
+      </c>
+      <c r="AW23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX23" s="0" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="AY23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ23" s="0" t="n">
+        <v>0.0042</v>
+      </c>
+      <c r="BA23" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB23" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BC23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD23" s="0" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="BE23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF23" s="0" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="BH23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK23" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL23" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>40.3952</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>-82.87199</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>88.4</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>732</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>514</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>363.3</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>334.3</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>29.45</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V24" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="W24" s="0" t="n">
+        <v>44.48</v>
+      </c>
+      <c r="X24" s="0" t="n">
+        <v>190.3</v>
+      </c>
+      <c r="Y24" s="0" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z24" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AA24" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="AB24" s="0" t="n">
+        <v>20.86</v>
+      </c>
+      <c r="AC24" s="0" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="AD24" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AE24" s="0" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AF24" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AG24" s="0" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AH24" s="0" t="n">
+        <v>63.79</v>
+      </c>
+      <c r="AI24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ24" s="0" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="AK24" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AL24" s="0" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AM24" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AN24" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR24" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AS24" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT24" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU24" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AV24" s="0" t="n">
+        <v>0.0049</v>
+      </c>
+      <c r="AW24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY24" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="AZ24" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="BA24" s="0" t="n">
+        <v>2E-005</v>
+      </c>
+      <c r="BB24" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BC24" s="0" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="BD24" s="0" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BE24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF24" s="0" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="BH24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK24" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL24" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>40.3952</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>-82.87199</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T25" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="W25" s="0" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="X25" s="0" t="n">
+        <v>161</v>
+      </c>
+      <c r="Y25" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>40.40617</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>-82.86286</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>94.1</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>8.22</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>734.4</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>747</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>739</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>485.55</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="R26" s="0" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <v>95.7</v>
+      </c>
+      <c r="X26" s="0" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="Y26" s="0" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="Z26" s="0" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AA26" s="0" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="AB26" s="0" t="n">
+        <v>24.69</v>
+      </c>
+      <c r="AC26" s="0" t="n">
+        <v>29.01</v>
+      </c>
+      <c r="AD26" s="0" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="AE26" s="0" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="AF26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG26" s="0" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AH26" s="0" t="n">
+        <v>84.58</v>
+      </c>
+      <c r="AI26" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AJ26" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AK26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL26" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AM26" s="0" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AN26" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO26" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AP26" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AQ26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR26" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AS26" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AT26" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU26" s="0" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AV26" s="0" t="n">
+        <v>0.0131</v>
+      </c>
+      <c r="AW26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX26" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="AY26" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AZ26" s="0" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="BA26" s="0" t="n">
+        <v>2E-005</v>
+      </c>
+      <c r="BB26" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BC26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD26" s="0" t="n">
+        <v>0.0006</v>
+      </c>
+      <c r="BE26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF26" s="0" t="n">
+        <v>0.0025</v>
+      </c>
+      <c r="BG26" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="BH26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK26" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL26" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>40.40617</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>-82.86286</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>470.2</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>300.2</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>306.9</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R27" s="0" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="S27" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T27" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <v>38.72</v>
+      </c>
+      <c r="X27" s="0" t="n">
+        <v>178.1</v>
+      </c>
+      <c r="Y27" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z27" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AA27" s="0" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="AB27" s="0" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="AC27" s="0" t="n">
+        <v>16.36</v>
+      </c>
+      <c r="AD27" s="0" t="n">
+        <v>0.084</v>
+      </c>
+      <c r="AE27" s="0" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="AF27" s="0" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="AG27" s="0" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="AH27" s="0" t="n">
+        <v>53.73</v>
+      </c>
+      <c r="AI27" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="AJ27" s="0" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="AK27" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AL27" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM27" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AN27" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO27" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AP27" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AQ27" s="0" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="AR27" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AS27" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AT27" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU27" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AV27" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AW27" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX27" s="0" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="AY27" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ27" s="0" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="BA27" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="BB27" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BC27" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD27" s="0" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="BE27" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF27" s="0" t="n">
+        <v>0.0011</v>
+      </c>
+      <c r="BH27" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI27" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ27" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK27" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL27" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>40.40617</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>-82.86286</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>84.4</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>9.59</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>8.36</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>731.1</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>506</v>
+      </c>
+      <c r="O28" s="0" t="n">
+        <v>357.1</v>
+      </c>
+      <c r="P28" s="0" t="n">
+        <v>329.5</v>
+      </c>
+      <c r="Q28" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R28" s="0" t="n">
+        <v>29.21</v>
+      </c>
+      <c r="S28" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T28" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="V28" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="W28" s="0" t="n">
+        <v>44.07</v>
+      </c>
+      <c r="X28" s="0" t="n">
+        <v>190.3</v>
+      </c>
+      <c r="Y28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z28" s="0" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AA28" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AB28" s="0" t="n">
+        <v>19.38</v>
+      </c>
+      <c r="AC28" s="0" t="n">
+        <v>17.81</v>
+      </c>
+      <c r="AD28" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AE28" s="0" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF28" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AG28" s="0" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AH28" s="0" t="n">
+        <v>61.23</v>
+      </c>
+      <c r="AI28" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ28" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="AK28" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AL28" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AM28" s="0" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AN28" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO28" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP28" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ28" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR28" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AS28" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT28" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU28" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AV28" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AW28" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX28" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY28" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="AZ28" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="BA28" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="BB28" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BC28" s="0" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="BD28" s="0" t="n">
+        <v>0.0006</v>
+      </c>
+      <c r="BE28" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF28" s="0" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="BH28" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI28" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ28" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK28" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL28" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>40.40617</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>-82.86286</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Q29" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="R29" s="0" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="S29" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="T29" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U29" s="0" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="V29" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="W29" s="0" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="X29" s="0" t="n">
+        <v>165.9</v>
+      </c>
+      <c r="Y29" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>40.39195</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>-82.86284</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>730.2</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>1116</v>
+      </c>
+      <c r="O30" s="0" t="n">
+        <v>1122</v>
+      </c>
+      <c r="P30" s="0" t="n">
+        <v>725.4</v>
+      </c>
+      <c r="Q30" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R30" s="0" t="n">
+        <v>141.9</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T30" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="U30" s="0" t="n">
+        <v>51.56</v>
+      </c>
+      <c r="V30" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="W30" s="0" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="X30" s="0" t="n">
+        <v>268.4</v>
+      </c>
+      <c r="Y30" s="0" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="Z30" s="0" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="AA30" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AB30" s="0" t="n">
+        <v>56.94</v>
+      </c>
+      <c r="AC30" s="0" t="n">
+        <v>30.58</v>
+      </c>
+      <c r="AD30" s="0" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="AE30" s="0" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF30" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG30" s="0" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="AH30" s="0" t="n">
+        <v>82.91</v>
+      </c>
+      <c r="AI30" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AJ30" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AK30" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL30" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AM30" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AN30" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AO30" s="0" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AP30" s="0" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AQ30" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AR30" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AS30" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AT30" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AU30" s="0" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV30" s="0" t="n">
+        <v>0.0186</v>
+      </c>
+      <c r="AW30" s="0" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="AX30" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="AY30" s="0" t="n">
+        <v>0.0045</v>
+      </c>
+      <c r="AZ30" s="0" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="BA30" s="0" t="n">
+        <v>4E-005</v>
+      </c>
+      <c r="BB30" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BC30" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD30" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BE30" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="BF30" s="0" t="n">
+        <v>0.0052</v>
+      </c>
+      <c r="BG30" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="BH30" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI30" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ30" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK30" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL30" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>40.39195</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>-82.86284</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>744.9</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="O31" s="0" t="n">
+        <v>411.2</v>
+      </c>
+      <c r="P31" s="0" t="n">
+        <v>407.1</v>
+      </c>
+      <c r="Q31" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="R31" s="0" t="n">
+        <v>46.82</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T31" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="U31" s="0" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="V31" s="0" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="W31" s="0" t="n">
+        <v>66.9</v>
+      </c>
+      <c r="X31" s="0" t="n">
+        <v>248.9</v>
+      </c>
+      <c r="Y31" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z31" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AA31" s="0" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="AB31" s="0" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="AC31" s="0" t="n">
+        <v>22.71</v>
+      </c>
+      <c r="AD31" s="0" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="AE31" s="0" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="AF31" s="0" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="AG31" s="0" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="AH31" s="0" t="n">
+        <v>76.45</v>
+      </c>
+      <c r="AI31" s="0" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AJ31" s="0" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="AK31" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AL31" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AM31" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AN31" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AO31" s="0" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AP31" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AQ31" s="0" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="AR31" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AS31" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AT31" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU31" s="0" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AV31" s="0" t="n">
+        <v>0.0063</v>
+      </c>
+      <c r="AW31" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX31" s="0" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="AY31" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ31" s="0" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="BA31" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB31" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BC31" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD31" s="0" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BE31" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF31" s="0" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="BH31" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI31" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ31" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK31" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL31" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>40.39195</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>-82.86284</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="J32" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <v>726.4</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <v>495.5</v>
+      </c>
+      <c r="O32" s="0" t="n">
+        <v>340.9</v>
+      </c>
+      <c r="P32" s="0" t="n">
+        <v>321.7</v>
+      </c>
+      <c r="Q32" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R32" s="0" t="n">
+        <v>29.03</v>
+      </c>
+      <c r="S32" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T32" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="V32" s="0" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="W32" s="0" t="n">
+        <v>36.62</v>
+      </c>
+      <c r="X32" s="0" t="n">
+        <v>192.8</v>
+      </c>
+      <c r="Y32" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z32" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AA32" s="0" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AB32" s="0" t="n">
+        <v>17.72</v>
+      </c>
+      <c r="AC32" s="0" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="AD32" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AE32" s="0" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AF32" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AG32" s="0" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="AH32" s="0" t="n">
+        <v>57.75</v>
+      </c>
+      <c r="AI32" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ32" s="0" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="AK32" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AL32" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AM32" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AN32" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO32" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP32" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ32" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR32" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AS32" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT32" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU32" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AV32" s="0" t="n">
+        <v>0.0037</v>
+      </c>
+      <c r="AW32" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX32" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AY32" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="AZ32" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="BA32" s="0" t="n">
+        <v>1E-005</v>
+      </c>
+      <c r="BB32" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BC32" s="0" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="BD32" s="0" t="n">
+        <v>0.0006</v>
+      </c>
+      <c r="BE32" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF32" s="0" t="n">
+        <v>0.0026</v>
+      </c>
+      <c r="BG32" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH32" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI32" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ32" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK32" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL32" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>40.39195</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>-82.86284</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R33" s="0" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="S33" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T33" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="X33" s="0" t="n">
+        <v>156.2</v>
+      </c>
+      <c r="Y33" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>40.23605</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>-82.89748</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>87.6</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>8.03</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>736.2</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>1491</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>1334</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>969.15</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R34" s="0" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="S34" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T34" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V34" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <v>624.2</v>
+      </c>
+      <c r="X34" s="0" t="n">
+        <v>395.3</v>
+      </c>
+      <c r="Y34" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z34" s="0" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="AA34" s="0" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="AB34" s="0" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="AC34" s="0" t="n">
+        <v>71.24</v>
+      </c>
+      <c r="AD34" s="0" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="AE34" s="0" t="n">
+        <v>8.12</v>
+      </c>
+      <c r="AF34" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG34" s="0" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AH34" s="0" t="n">
+        <v>227.71</v>
+      </c>
+      <c r="AI34" s="0" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="AJ34" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK34" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL34" s="0" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AM34" s="0" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AN34" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AO34" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AP34" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AQ34" s="0" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="AR34" s="0" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="AS34" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AT34" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU34" s="0" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AV34" s="0" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="AW34" s="0" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="AX34" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="AY34" s="0" t="n">
+        <v>0.0044</v>
+      </c>
+      <c r="AZ34" s="0" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="BA34" s="0" t="n">
+        <v>3E-005</v>
+      </c>
+      <c r="BB34" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BC34" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD34" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="BE34" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="BF34" s="0" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="BH34" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI34" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ34" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK34" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL34" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>40.23605</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>-82.89748</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>95.6</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>11.57</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>752.3</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>754</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>493.3</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>490</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R35" s="0" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="S35" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T35" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <v>202.83</v>
+      </c>
+      <c r="X35" s="0" t="n">
+        <v>261.1</v>
+      </c>
+      <c r="Y35" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z35" s="0" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="AA35" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AB35" s="0" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="AC35" s="0" t="n">
+        <v>31.54</v>
+      </c>
+      <c r="AD35" s="0" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="AE35" s="0" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="AF35" s="0" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="AG35" s="0" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="AH35" s="0" t="n">
+        <v>106.19</v>
+      </c>
+      <c r="AI35" s="0" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="AJ35" s="0" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="AK35" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AL35" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AM35" s="0" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN35" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AO35" s="0" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="AP35" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AQ35" s="0" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="AR35" s="0" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AS35" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AT35" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU35" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AV35" s="0" t="n">
+        <v>0.0082</v>
+      </c>
+      <c r="AW35" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX35" s="0" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="AY35" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AZ35" s="0" t="n">
+        <v>0.0038</v>
+      </c>
+      <c r="BA35" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="BB35" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BC35" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD35" s="0" t="n">
+        <v>0.0004</v>
+      </c>
+      <c r="BE35" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF35" s="0" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="BH35" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI35" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ35" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK35" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL35" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>40.23605</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>-82.89748</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>732.7</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>801</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>566</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>520</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="R36" s="0" t="n">
+        <v>22.93</v>
+      </c>
+      <c r="S36" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T36" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="V36" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="W36" s="0" t="n">
+        <v>195.49</v>
+      </c>
+      <c r="X36" s="0" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="Y36" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z36" s="0" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="AA36" s="0" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="AB36" s="0" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="AC36" s="0" t="n">
+        <v>32.29</v>
+      </c>
+      <c r="AD36" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AE36" s="0" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AF36" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AG36" s="0" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="AH36" s="0" t="n">
+        <v>107.14</v>
+      </c>
+      <c r="AI36" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ36" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="AK36" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AL36" s="0" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AM36" s="0" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AN36" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO36" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP36" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ36" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR36" s="0" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AS36" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT36" s="0" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="AU36" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AV36" s="0" t="n">
+        <v>0.0087</v>
+      </c>
+      <c r="AW36" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX36" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY36" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="AZ36" s="0" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="BA36" s="0" t="n">
+        <v>2E-005</v>
+      </c>
+      <c r="BB36" s="0" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BC36" s="0" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="BD36" s="0" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="BE36" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BF36" s="0" t="n">
+        <v>0.0021</v>
+      </c>
+      <c r="BH36" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI36" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BJ36" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BK36" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="BL36" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>40.23605</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>-82.89748</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q37" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="R37" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="S37" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="T37" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="U37" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="V37" s="0" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="W37" s="0" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="X37" s="0" t="n">
+        <v>200.1</v>
+      </c>
+      <c r="Y37" s="0" t="n">
+        <v>7.2</v>
       </c>
     </row>
   </sheetData>

--- a/data/biweekly/ccbor-biweekly-stolz.xlsx
+++ b/data/biweekly/ccbor-biweekly-stolz.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2185" uniqueCount="296">
   <si>
     <t xml:space="preserve">site</t>
   </si>
@@ -889,6 +889,27 @@
   </si>
   <si>
     <t xml:space="preserve">Ti (mg/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fe (mg/L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methane (ppb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethane (ppb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethene (ppb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propane (ppb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propylene (ppb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butane (ppb)</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1072,7 @@
       <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.52"/>
@@ -1079,7 +1100,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="8.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="10.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="7.26"/>
@@ -1108,7 +1129,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="70" style="0" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="0" width="9.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="0" width="7.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="0" width="12.41"/>
@@ -17457,7 +17478,7 @@
       <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="37.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.06"/>
@@ -18475,16 +18496,16 @@
   </sheetPr>
   <dimension ref="A1:BM37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AT1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BM4" activeCellId="0" sqref="BM4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.1"/>
@@ -18499,7 +18520,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="8.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="6.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="10.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="7.26"/>
@@ -18528,7 +18549,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="60" style="0" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="9.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="0" width="7.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="0" width="12.41"/>
@@ -18650,7 +18671,7 @@
         <v>47</v>
       </c>
       <c r="AM1" s="8" t="s">
-        <v>48</v>
+        <v>289</v>
       </c>
       <c r="AN1" s="8" t="s">
         <v>49</v>
@@ -18710,22 +18731,22 @@
         <v>67</v>
       </c>
       <c r="BG1" s="8" t="s">
-        <v>68</v>
+        <v>290</v>
       </c>
       <c r="BH1" s="8" t="s">
-        <v>69</v>
+        <v>291</v>
       </c>
       <c r="BI1" s="8" t="s">
-        <v>70</v>
+        <v>292</v>
       </c>
       <c r="BJ1" s="8" t="s">
-        <v>71</v>
+        <v>293</v>
       </c>
       <c r="BK1" s="8" t="s">
-        <v>72</v>
+        <v>294</v>
       </c>
       <c r="BL1" s="8" t="s">
-        <v>73</v>
+        <v>295</v>
       </c>
       <c r="BM1" s="8"/>
     </row>

--- a/data/biweekly/ccbor-biweekly-stolz.xlsx
+++ b/data/biweekly/ccbor-biweekly-stolz.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="ccbor-biweekly-stolz" sheetId="1" state="visible" r:id="rId2"/>
@@ -1068,11 +1068,11 @@
   </sheetPr>
   <dimension ref="A1:BW221"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D198" activeCellId="0" sqref="198:198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.52"/>
@@ -17474,11 +17474,11 @@
   </sheetPr>
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M11" activeCellId="1" sqref="198:198 M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="37.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.06"/>
@@ -17545,7 +17545,7 @@
         <v>458</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>798</v>
+        <v>1612</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>8</v>
@@ -17592,7 +17592,7 @@
         <v>458</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>534</v>
+        <v>1089</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>250</v>
@@ -17640,7 +17640,7 @@
         <v>513</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>854</v>
+        <v>1696</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>251</v>
@@ -17691,7 +17691,7 @@
         <v>434</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>805</v>
+        <v>1606</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>252</v>
@@ -17742,7 +17742,7 @@
         <v>481</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>791</v>
+        <v>1582</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>253</v>
@@ -17793,7 +17793,7 @@
         <v>418</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>679</v>
+        <v>1372</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>254</v>
@@ -17844,7 +17844,7 @@
         <v>328</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>398</v>
+        <v>816</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>255</v>
@@ -17895,7 +17895,7 @@
         <v>376</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>647</v>
+        <v>1287</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>256</v>
@@ -17946,7 +17946,7 @@
         <v>358</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>554</v>
+        <v>1135</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>257</v>
@@ -17997,26 +17997,26 @@
         <v>235</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>213</v>
+        <v>451</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>258</v>
       </c>
       <c r="M11" s="6" t="n">
         <f aca="false">AVERAGE(J2:J26)</f>
-        <v>546.791666666667</v>
+        <v>1107.45833333333</v>
       </c>
       <c r="N11" s="4" t="n">
         <f aca="false">MIN(J2:J26)</f>
-        <v>130</v>
+        <v>275</v>
       </c>
       <c r="O11" s="4" t="n">
         <f aca="false">MAX(J2:J26)</f>
-        <v>854</v>
+        <v>1696</v>
       </c>
       <c r="P11" s="7" t="n">
         <f aca="false">STDEV(J2:J26)</f>
-        <v>224.786271274789</v>
+        <v>444.835776161971</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18048,7 +18048,7 @@
         <v>316</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>569</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18080,7 +18080,7 @@
         <v>368</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>684</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18109,7 +18109,7 @@
         <v>376</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>426</v>
+        <v>788</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18138,7 +18138,7 @@
         <v>335</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>323</v>
+        <v>669</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18170,7 +18170,7 @@
         <v>277</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>446</v>
+        <v>955</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18202,7 +18202,7 @@
         <v>254</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>418</v>
+        <v>878</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18234,7 +18234,7 @@
         <v>395</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>762</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18266,7 +18266,7 @@
         <v>350</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>553</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18298,7 +18298,7 @@
         <v>194</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>159</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18330,7 +18330,7 @@
         <v>182</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>780</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18362,7 +18362,7 @@
         <v>342</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>130</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18394,7 +18394,7 @@
         <v>653</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>707</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18426,7 +18426,7 @@
         <v>306</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>186</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18458,7 +18458,7 @@
         <v>570</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>707</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18496,11 +18496,11 @@
   </sheetPr>
   <dimension ref="A1:BM37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AT1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BM4" activeCellId="0" sqref="BM4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AT1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BM4" activeCellId="1" sqref="198:198 BM4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.52"/>
